--- a/需求任务点.xlsx
+++ b/需求任务点.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QinQichen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Edit\IDEA\course_stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C144F-5F83-4837-B0E5-7338D0D935DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018D1BA9-B5E3-4AD1-BD00-73F9CDFCA958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="870" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>系统</t>
   </si>
@@ -496,10 +496,6 @@
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在做</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -638,12 +634,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,6 +648,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -669,12 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,7 +1023,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1056,494 +1052,500 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="5"/>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="5"/>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="48" customHeight="1" thickBot="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="5"/>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="33" customHeight="1" thickBot="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1" thickBot="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="39" customHeight="1" thickBot="1">
+      <c r="A17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="54.75" thickBot="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="63" customHeight="1" thickBot="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="4">
         <v>2</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1" thickBot="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="54.75" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="27.75" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="4">
         <v>5</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="63" customHeight="1" thickBot="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="6">
-        <v>5</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="6">
-        <v>2</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="6">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="27.75" thickBot="1">
-      <c r="A25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="6">
-        <v>5</v>
-      </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="6">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="4">
         <f>SUM(E2:E25)</f>
         <v>65</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>7</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="6">
+      <c r="D28" s="9"/>
+      <c r="E28" s="4">
         <v>10</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6">
+      <c r="D29" s="9"/>
+      <c r="E29" s="4">
         <v>57</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6">
+      <c r="D30" s="9"/>
+      <c r="E30" s="4">
         <v>60</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A17:A24"/>
@@ -1552,12 +1554,6 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求任务点.xlsx
+++ b/需求任务点.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Edit\IDEA\course_stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018D1BA9-B5E3-4AD1-BD00-73F9CDFCA958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25E042F-F9AA-4F5F-BCC9-C9EAF39E5F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="870" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>系统</t>
   </si>
@@ -500,6 +500,10 @@
   </si>
   <si>
     <t>秦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在做</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -648,16 +652,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1023,7 +1027,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1052,10 +1056,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1076,8 +1080,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1096,8 +1100,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1110,7 +1114,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A5" s="9"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1126,8 +1130,8 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1142,8 +1146,8 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1156,8 +1160,8 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="48" customHeight="1" thickBot="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1170,10 +1174,16 @@
         <v>3</v>
       </c>
       <c r="F8" s="5"/>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1192,8 +1202,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1212,8 +1222,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1228,8 +1238,8 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1242,7 +1252,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A13" s="9"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1258,7 +1268,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="33" customHeight="1" thickBot="1">
-      <c r="A14" s="9"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1274,8 +1284,8 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1288,8 +1298,8 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1302,7 +1312,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1320,7 +1330,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="54.75" thickBot="1">
-      <c r="A18" s="9"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1336,7 +1346,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="63" customHeight="1" thickBot="1">
-      <c r="A19" s="9"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
@@ -1352,8 +1362,8 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1368,8 +1378,8 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
@@ -1382,8 +1392,8 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
@@ -1396,8 +1406,8 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="2" t="s">
         <v>60</v>
       </c>
@@ -1410,7 +1420,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1">
-      <c r="A24" s="9"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
@@ -1466,7 +1476,7 @@
       <c r="C27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="4">
@@ -1478,13 +1488,13 @@
       <c r="A28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="4">
         <v>10</v>
       </c>
@@ -1494,11 +1504,11 @@
       <c r="A29" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="4">
         <v>57</v>
       </c>
@@ -1512,40 +1522,34 @@
       <c r="C30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="4">
         <v>60</v>
       </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A17:A24"/>
@@ -1554,6 +1558,12 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求任务点.xlsx
+++ b/需求任务点.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Edit\IDEA\course_stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25E042F-F9AA-4F5F-BCC9-C9EAF39E5F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E298CA0-CD06-4BFB-93D6-15D29BEC4A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>系统</t>
   </si>
@@ -652,16 +652,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1056,10 +1056,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1080,8 +1080,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1100,8 +1100,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1130,8 +1130,8 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1146,8 +1146,8 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1160,8 +1160,8 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="48" customHeight="1" thickBot="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1182,8 +1182,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1202,8 +1202,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1222,8 +1222,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1238,8 +1238,8 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="33" customHeight="1" thickBot="1">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1284,8 +1284,8 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1296,10 +1296,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="5"/>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1312,7 +1318,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="39" customHeight="1" thickBot="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1330,7 +1336,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="54.75" thickBot="1">
-      <c r="A18" s="7"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1346,7 +1352,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="63" customHeight="1" thickBot="1">
-      <c r="A19" s="7"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
@@ -1362,8 +1368,8 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1378,8 +1384,8 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
@@ -1392,8 +1398,8 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
@@ -1406,8 +1412,8 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
         <v>60</v>
       </c>
@@ -1420,7 +1426,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1">
-      <c r="A24" s="7"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
@@ -1476,7 +1482,7 @@
       <c r="C27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="4">
@@ -1488,13 +1494,13 @@
       <c r="A28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="4">
         <v>10</v>
       </c>
@@ -1504,11 +1510,11 @@
       <c r="A29" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="4">
         <v>57</v>
       </c>
@@ -1522,34 +1528,40 @@
       <c r="C30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="4">
         <v>60</v>
       </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A17:A24"/>
@@ -1558,12 +1570,6 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求任务点.xlsx
+++ b/需求任务点.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Edit\IDEA\course_stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E298CA0-CD06-4BFB-93D6-15D29BEC4A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6A13AA-00D8-435B-AF10-896B1D497DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>系统</t>
   </si>
@@ -504,6 +504,10 @@
   </si>
   <si>
     <t>在做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1027,7 +1031,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1112,6 +1116,12 @@
         <v>3</v>
       </c>
       <c r="F4" s="5"/>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
       <c r="A5" s="9"/>
@@ -1128,6 +1138,12 @@
         <v>2</v>
       </c>
       <c r="F5" s="5"/>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
       <c r="A6" s="9"/>
@@ -1300,7 +1316,7 @@
         <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1" thickBot="1">
